--- a/Descargas/R15_6º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Agosto.xlsx
+++ b/Descargas/R15_6º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Agosto.xlsx
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="B55" s="65">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="56">
